--- a/BiSS.Projects.RPGen/Data/TEMPLATE - 副本.XLSX
+++ b/BiSS.Projects.RPGen/Data/TEMPLATE - 副本.XLSX
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>1. 使用引导</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,42 @@
   </si>
   <si>
     <t>=============================数据区域结束====================================数据区域结束=========================数据区域结束========================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两行非数据区域,请不要修改!                       CONST MAX NUM=&gt;1000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -493,12 +535,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="7" fillId="7" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -517,10 +596,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="1" xfId="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="typical" xfId="1"/>
@@ -896,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -1340,7 +1425,7 @@
     </row>
     <row r="54" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="1:1" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1374,72 +1459,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="13.625" style="14"/>
+    <col min="1" max="1" width="13.625" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="13.625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="17"/>
+    </row>
+    <row r="2" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="19">
+        <f>COUNTIF(A4:A1000000,"&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="19" t="e">
+        <f>AVERAGE(A2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="P3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="Q3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="R3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="S3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T3" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="U3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
